--- a/data/bacterial-metabolites_dose-simicillin_wide.xlsx
+++ b/data/bacterial-metabolites_dose-simicillin_wide.xlsx
@@ -1,21 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffsocal/Local/github/ASMS_R_Basics/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5210289E-4BC9-9F43-9EBB-E0FA501A9227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>Culture</t>
+  </si>
+  <si>
+    <t>glutamate_Time_0min</t>
+  </si>
+  <si>
+    <t>glutamate_Time_10min</t>
+  </si>
+  <si>
+    <t>glutamate_Time_20min</t>
+  </si>
+  <si>
+    <t>glutamate_Time_50min</t>
+  </si>
+  <si>
+    <t>glutamate_Time_2hr</t>
+  </si>
+  <si>
+    <t>lysine_Time_0min</t>
+  </si>
+  <si>
+    <t>lysine_Time_10min</t>
+  </si>
+  <si>
+    <t>lysine_Time_20min</t>
+  </si>
+  <si>
+    <t>lysine_Time_50min</t>
+  </si>
+  <si>
+    <t>lysine_Time_2hr</t>
+  </si>
+  <si>
+    <t>succinic acid_Time_0min</t>
+  </si>
+  <si>
+    <t>succinic acid_Time_10min</t>
+  </si>
+  <si>
+    <t>succinic acid_Time_20min</t>
+  </si>
+  <si>
+    <t>succinic acid_Time_50min</t>
+  </si>
+  <si>
+    <t>succinic acid_Time_2hr</t>
+  </si>
+  <si>
+    <t>phosphatidylcholine_Time_0min</t>
+  </si>
+  <si>
+    <t>phosphatidylcholine_Time_10min</t>
+  </si>
+  <si>
+    <t>phosphatidylcholine_Time_20min</t>
+  </si>
+  <si>
+    <t>phosphatidylcholine_Time_50min</t>
+  </si>
+  <si>
+    <t>phosphatidylcholine_Time_2hr</t>
+  </si>
+  <si>
+    <t>e coli dose:0mg</t>
+  </si>
+  <si>
+    <t>staph aureus dose:0mg</t>
+  </si>
+  <si>
+    <t>p aeruginosa dose:0mg</t>
+  </si>
+  <si>
+    <t>e coli dose:10mg</t>
+  </si>
+  <si>
+    <t>staph aureus dose:10mg</t>
+  </si>
+  <si>
+    <t>p aeruginosa dose:10mg</t>
+  </si>
+  <si>
+    <t>e coli dose:20mg</t>
+  </si>
+  <si>
+    <t>staph aureus dose:20mg</t>
+  </si>
+  <si>
+    <t>p aeruginosa dose:20mg</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +164,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +216,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +250,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +285,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,125 +461,81 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>glutamate_Time_0min</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>glutamate_Time_10min</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>glutamate_Time_20min</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>glutamate_Time_50min</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>glutamate_Time_2hr</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lysine_Time_0min</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>lysine_Time_10min</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lysine_Time_20min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lysine_Time_50min</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lysine_Time_2hr</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>succinic acid_Time_0min</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>succinic acid_Time_10min</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>succinic acid_Time_20min</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>succinic acid_Time_50min</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>succinic acid_Time_2hr</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>phosphatidylcholine_Time_0min</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>phosphatidylcholine_Time_10min</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>phosphatidylcholine_Time_20min</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>phosphatidylcholine_Time_50min</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>phosphatidylcholine_Time_2hr</t>
-        </is>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>e coli dose:0mg</t>
-        </is>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
       </c>
       <c r="B2">
         <v>191666</v>
@@ -531,11 +598,9 @@
         <v>175507910</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>staph aureus dose:0mg</t>
-        </is>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>125210</v>
@@ -598,11 +663,9 @@
         <v>11830920</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>p aeruginosa dose:0mg</t>
-        </is>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
       </c>
       <c r="B4">
         <v>978126</v>
@@ -665,11 +728,9 @@
         <v>120335903</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>e coli dose:10mg</t>
-        </is>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
       </c>
       <c r="B5">
         <v>1445</v>
@@ -732,11 +793,9 @@
         <v>118321</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>staph aureus dose:10mg</t>
-        </is>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6">
         <v>152</v>
@@ -799,11 +858,9 @@
         <v>12694</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>p aeruginosa dose:10mg</t>
-        </is>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
       </c>
       <c r="B7">
         <v>23</v>
@@ -866,11 +923,9 @@
         <v>8778</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>e coli dose:20mg</t>
-        </is>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
       </c>
       <c r="B8">
         <v>885</v>
@@ -933,11 +988,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>staph aureus dose:20mg</t>
-        </is>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
       </c>
       <c r="B9">
         <v>136</v>
@@ -1000,11 +1053,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>p aeruginosa dose:20mg</t>
-        </is>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
       </c>
       <c r="B10">
         <v>3098</v>

--- a/data/bacterial-metabolites_dose-simicillin_wide.xlsx
+++ b/data/bacterial-metabolites_dose-simicillin_wide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffsocal/Local/github/ASMS_R_Basics/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5210289E-4BC9-9F43-9EBB-E0FA501A9227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577034E3-DCBE-3146-9DAA-666C45B6BD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,9 +464,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="21" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -660,7 +665,7 @@
         <v>11428576</v>
       </c>
       <c r="U3">
-        <v>11830920</v>
+        <v>11830921</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
